--- a/fastqFiles/fastq_1573.xlsx
+++ b/fastqFiles/fastq_1573.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
